--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_19.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_6_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178323.4012264132</v>
+        <v>174757.8993528642</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.653892729</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791245</v>
+        <v>419463.0933791242</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11311261.86145812</v>
+        <v>11307721.98511561</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>226.579164372683</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>20.96356036939295</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>147.2954742968075</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -801,10 +801,10 @@
         <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>177.5210747552478</v>
+        <v>83.10540215283515</v>
       </c>
     </row>
     <row r="4">
@@ -814,25 +814,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>93.52529077486061</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -865,13 +865,13 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>39.05356669127193</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -902,16 +902,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>162.0886610635989</v>
       </c>
       <c r="G5" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
-        <v>46.73159393936849</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +981,19 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>107.163526593948</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>96.52485201226531</v>
       </c>
       <c r="G6" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
         <v>175.2139736830806</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -1072,10 +1072,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,16 +1111,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>5.673470249650601</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>109.3713490748921</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,19 +1130,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>186.183222269733</v>
+        <v>298.6232996145864</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
@@ -1151,7 +1151,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>142.0969381919195</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>83.09224796262757</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>76.73491897814621</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372789</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362801</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>32.13423848633182</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
         <v>84.67436304442485</v>
@@ -1546,7 +1546,7 @@
         <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>31.18556148904193</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1585,7 +1585,7 @@
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>209.4187856534022</v>
@@ -1594,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>139.8174597798999</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,13 +1604,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>318.1654340873668</v>
       </c>
       <c r="D14" t="n">
-        <v>310.508405100767</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>327.479377239889</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362804</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>28.85218297982479</v>
+        <v>22.5820341361752</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>267.6074288087849</v>
       </c>
       <c r="W14" t="n">
         <v>296.2107322866635</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096564</v>
+        <v>102.2129992214959</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993877</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.9984695717785</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>82.92491162465761</v>
@@ -1777,13 +1777,13 @@
         <v>84.67436304442488</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.49320096681701</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456099</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901691</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457862</v>
@@ -1828,10 +1828,10 @@
         <v>209.4187856534023</v>
       </c>
       <c r="X16" t="n">
-        <v>104.822691448869</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767912</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1904,10 +1904,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E20" t="n">
         <v>268.1977203190365</v>
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,10 +2141,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
         <v>262.1658326730205</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380516</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357242</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596456</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H22" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799665</v>
+        <v>302.4985237799664</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142885</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497644</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542118</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820276</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345498</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852509</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838875</v>
+        <v>24.17382596574977</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828888</v>
+        <v>52.06849973564989</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161064</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696763</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034457</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813243</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885338</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043172</v>
+        <v>70.57601873167822</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459961</v>
+        <v>55.72314698196062</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643934</v>
+        <v>41.29686219380035</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931845</v>
+        <v>41.22330424667946</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908571</v>
+        <v>42.97275566644673</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147785</v>
+        <v>53.79159358883886</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804989</v>
+        <v>41.14384575541091</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922182</v>
+        <v>18.98356133658284</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367774</v>
+        <v>9.882059701038756</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920506</v>
+        <v>88.00800320656607</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133771</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.247946540447</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273129</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.544483271452</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C35" t="n">
         <v>258.8837771665143</v>
@@ -3272,7 +3272,7 @@
         <v>251.2267481799145</v>
       </c>
       <c r="E35" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
         <v>282.3655247697376</v>
@@ -3284,7 +3284,7 @@
         <v>190.4822506135898</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,19 +3311,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>1.350599632132798e-12</v>
       </c>
       <c r="S35" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U35" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
         <v>236.929075365811</v>
@@ -3332,7 +3332,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380507</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596447</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253652</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T37" t="n">
         <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
         <v>132.9595824117996</v>
@@ -3490,7 +3490,7 @@
         <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1652.169483657176</v>
+        <v>1257.00156952169</v>
       </c>
       <c r="C2" t="n">
-        <v>1258.993982160106</v>
+        <v>1257.00156952169</v>
       </c>
       <c r="D2" t="n">
-        <v>873.552853376774</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="E2" t="n">
-        <v>873.552853376774</v>
+        <v>871.5604407383576</v>
       </c>
       <c r="F2" t="n">
-        <v>456.6584149067518</v>
+        <v>454.6660022683353</v>
       </c>
       <c r="G2" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H2" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I2" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J2" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310448</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L2" t="n">
-        <v>673.8990329354843</v>
+        <v>773.3325661833842</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354843</v>
+        <v>773.3325661833842</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572946</v>
+        <v>1286.935244793073</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465275</v>
+        <v>1726.974845685401</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596797</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023267</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023267</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T2" t="n">
-        <v>2136.790056023267</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="U2" t="n">
-        <v>1881.037326457866</v>
+        <v>2053.987024312486</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.037326457866</v>
+        <v>2053.987024312486</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.037326457866</v>
+        <v>2053.987024312486</v>
       </c>
       <c r="X2" t="n">
-        <v>1881.037326457866</v>
+        <v>2053.987024312486</v>
       </c>
       <c r="Y2" t="n">
-        <v>1881.037326457866</v>
+        <v>1657.496315233087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963695</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564617</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>560.126032077942</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272461</v>
+        <v>423.6795411888297</v>
       </c>
       <c r="F3" t="n">
-        <v>301.2401477103779</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284331</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I3" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J3" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569813</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>1385.059676365387</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="N3" t="n">
-        <v>1769.161601021348</v>
+        <v>1327.194567652344</v>
       </c>
       <c r="O3" t="n">
-        <v>1769.161601021348</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="P3" t="n">
-        <v>2174.782969737745</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2174.782969737745</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2174.782969737745</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V3" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373308</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.1287724922402</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="C4" t="n">
-        <v>199.1287724922402</v>
+        <v>772.7451513638802</v>
       </c>
       <c r="D4" t="n">
-        <v>43.4956593947549</v>
+        <v>617.1120382663948</v>
       </c>
       <c r="E4" t="n">
-        <v>43.4956593947549</v>
+        <v>461.5532261255973</v>
       </c>
       <c r="F4" t="n">
-        <v>43.4956593947549</v>
+        <v>304.2272913385703</v>
       </c>
       <c r="G4" t="n">
-        <v>43.4956593947549</v>
+        <v>135.9732374380158</v>
       </c>
       <c r="H4" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I4" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J4" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S4" t="n">
-        <v>905.4946347734065</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T4" t="n">
-        <v>669.7755829416406</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U4" t="n">
-        <v>384.3367911835414</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V4" t="n">
-        <v>384.3367911835414</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="W4" t="n">
-        <v>384.3367911835414</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="X4" t="n">
-        <v>384.3367911835414</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="Y4" t="n">
-        <v>384.3367911835414</v>
+        <v>942.9502692978909</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1461.677125409551</v>
+        <v>1080.812089875641</v>
       </c>
       <c r="C5" t="n">
-        <v>1461.677125409551</v>
+        <v>1080.812089875641</v>
       </c>
       <c r="D5" t="n">
-        <v>1461.677125409551</v>
+        <v>1080.812089875641</v>
       </c>
       <c r="E5" t="n">
-        <v>1059.093600526096</v>
+        <v>1080.812089875641</v>
       </c>
       <c r="F5" t="n">
-        <v>642.1991620560733</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G5" t="n">
-        <v>229.0364065440764</v>
+        <v>503.923414097383</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J5" t="n">
-        <v>43.4956593947549</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K5" t="n">
-        <v>43.4956593947549</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="L5" t="n">
-        <v>135.6402479253924</v>
+        <v>259.7298875736958</v>
       </c>
       <c r="M5" t="n">
-        <v>673.8990329354843</v>
+        <v>773.3325661833842</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572946</v>
+        <v>1286.935244793073</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465275</v>
+        <v>1726.974845685401</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596797</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="U5" t="n">
-        <v>2174.782969737745</v>
+        <v>1819.409608251522</v>
       </c>
       <c r="V5" t="n">
-        <v>1832.676160441264</v>
+        <v>1477.30279895504</v>
       </c>
       <c r="W5" t="n">
-        <v>1461.677125409551</v>
+        <v>1477.30279895504</v>
       </c>
       <c r="X5" t="n">
-        <v>1461.677125409551</v>
+        <v>1477.30279895504</v>
       </c>
       <c r="Y5" t="n">
-        <v>1461.677125409551</v>
+        <v>1080.812089875641</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>814.6611381042069</v>
+        <v>556.1927859813179</v>
       </c>
       <c r="C6" t="n">
-        <v>664.0069076642991</v>
+        <v>405.5385555414101</v>
       </c>
       <c r="D6" t="n">
-        <v>533.9179402857794</v>
+        <v>275.4495881628904</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272461</v>
+        <v>139.0030972737782</v>
       </c>
       <c r="F6" t="n">
-        <v>301.2401477103779</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284331</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I6" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J6" t="n">
-        <v>43.4956593947549</v>
+        <v>118.2679669754068</v>
       </c>
       <c r="K6" t="n">
-        <v>43.4956593947549</v>
+        <v>438.0071130376332</v>
       </c>
       <c r="L6" t="n">
-        <v>43.4956593947549</v>
+        <v>921.5731989359465</v>
       </c>
       <c r="M6" t="n">
-        <v>480.0174418653841</v>
+        <v>921.5731989359465</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875476</v>
+        <v>921.5731989359465</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466457</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182855</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737745</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737745</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737745</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T6" t="n">
-        <v>1997.799157936654</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1787.736014615295</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V6" t="n">
-        <v>1565.196012986362</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W6" t="n">
-        <v>1335.078767119649</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X6" t="n">
-        <v>1145.771689469661</v>
+        <v>887.303337346772</v>
       </c>
       <c r="Y6" t="n">
-        <v>966.4574725451682</v>
+        <v>707.9891204222793</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>710.5655823922257</v>
+        <v>653.8890891991185</v>
       </c>
       <c r="C7" t="n">
-        <v>710.5655823922257</v>
+        <v>653.8890891991185</v>
       </c>
       <c r="D7" t="n">
-        <v>554.9324692947405</v>
+        <v>653.8890891991185</v>
       </c>
       <c r="E7" t="n">
-        <v>554.9324692947405</v>
+        <v>498.330277058321</v>
       </c>
       <c r="F7" t="n">
-        <v>397.6065345077134</v>
+        <v>498.330277058321</v>
       </c>
       <c r="G7" t="n">
-        <v>229.352480607159</v>
+        <v>330.0762231577666</v>
       </c>
       <c r="H7" t="n">
-        <v>73.87392956865295</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I7" t="n">
-        <v>73.87392956865295</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J7" t="n">
-        <v>43.4956593947549</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="T7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="U7" t="n">
-        <v>821.0416925688844</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="V7" t="n">
-        <v>821.0416925688844</v>
+        <v>937.2194912679408</v>
       </c>
       <c r="W7" t="n">
-        <v>821.0416925688844</v>
+        <v>653.8890891991185</v>
       </c>
       <c r="X7" t="n">
-        <v>821.0416925688844</v>
+        <v>653.8890891991185</v>
       </c>
       <c r="Y7" t="n">
-        <v>710.5655823922257</v>
+        <v>653.8890891991185</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1760.647290592356</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="C8" t="n">
-        <v>1760.647290592356</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="D8" t="n">
-        <v>1375.206161809024</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="E8" t="n">
-        <v>972.622636925568</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="F8" t="n">
-        <v>784.5587760470498</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4808,10 +4808,10 @@
         <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>550.9450990378335</v>
+        <v>846.5749518678007</v>
       </c>
       <c r="M8" t="n">
-        <v>864.7645682749193</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N8" t="n">
         <v>1392.575851912381</v>
@@ -4832,22 +4832,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1595.534624566688</v>
       </c>
       <c r="W8" t="n">
-        <v>2161.142036303753</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.142036303753</v>
+        <v>1224.535589534975</v>
       </c>
       <c r="Y8" t="n">
-        <v>2161.142036303753</v>
+        <v>1224.535589534975</v>
       </c>
     </row>
     <row r="9">
@@ -4881,19 +4881,19 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>71.09994889437468</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>554.6660347926879</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1140.16403979929</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N9" t="n">
-        <v>1725.662044805892</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O9" t="n">
         <v>1725.662044805892</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.4295905742738</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C10" t="n">
-        <v>665.4295905742738</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D10" t="n">
-        <v>509.7964774767885</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>509.7964774767885</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>509.7964774767885</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>366.2642166768698</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>210.7856656383638</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
         <v>77.69124027544166</v>
@@ -4990,22 +4990,22 @@
         <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>948.7599926430961</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W10" t="n">
-        <v>665.4295905742738</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="X10" t="n">
-        <v>665.4295905742738</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="Y10" t="n">
-        <v>665.4295905742738</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2033.22271816768</v>
+        <v>1699.093732252354</v>
       </c>
       <c r="C11" t="n">
-        <v>1711.843491816804</v>
+        <v>1377.714505901479</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179666</v>
+        <v>1064.06965226434</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>733.2824025270788</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185758</v>
+        <v>655.7723833572342</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527727</v>
+        <v>314.4059029914312</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654568</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2978.780278539151</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U11" t="n">
-        <v>2978.780278539151</v>
+        <v>2921.999930786569</v>
       </c>
       <c r="V11" t="n">
-        <v>2978.780278539151</v>
+        <v>2651.689396636281</v>
       </c>
       <c r="W11" t="n">
-        <v>2679.577518653632</v>
+        <v>2352.486636750763</v>
       </c>
       <c r="X11" t="n">
-        <v>2361.921188732883</v>
+        <v>2352.486636750763</v>
       </c>
       <c r="Y11" t="n">
-        <v>2361.921188732883</v>
+        <v>2027.792202817557</v>
       </c>
     </row>
     <row r="12">
@@ -5118,25 +5118,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>327.7888419916214</v>
+        <v>625.2976268859818</v>
       </c>
       <c r="C13" t="n">
-        <v>327.7888419916214</v>
+        <v>526.8887840981648</v>
       </c>
       <c r="D13" t="n">
-        <v>327.7888419916214</v>
+        <v>443.0519461468735</v>
       </c>
       <c r="E13" t="n">
-        <v>327.7888419916214</v>
+        <v>359.2894091522699</v>
       </c>
       <c r="F13" t="n">
-        <v>242.2591823507883</v>
+        <v>273.7597495114367</v>
       </c>
       <c r="G13" t="n">
-        <v>145.8014035964277</v>
+        <v>177.3019707570761</v>
       </c>
       <c r="H13" t="n">
-        <v>62.11912770411553</v>
+        <v>93.61969486476394</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581891</v>
+        <v>254.9154847581888</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027735</v>
+        <v>489.4106539027731</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118222</v>
+        <v>746.0697615118219</v>
       </c>
       <c r="N13" t="n">
-        <v>999.626924813816</v>
+        <v>999.6269248138157</v>
       </c>
       <c r="O13" t="n">
-        <v>1232.699221126309</v>
+        <v>1232.699221126308</v>
       </c>
       <c r="P13" t="n">
-        <v>1422.942916173672</v>
+        <v>1422.942916173671</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1365.712833143251</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T13" t="n">
-        <v>1201.790056457679</v>
+        <v>1201.790056457678</v>
       </c>
       <c r="U13" t="n">
-        <v>988.1475398457737</v>
+        <v>988.1475398457729</v>
       </c>
       <c r="V13" t="n">
-        <v>793.9644698127918</v>
+        <v>988.1475398457729</v>
       </c>
       <c r="W13" t="n">
-        <v>582.430342890163</v>
+        <v>776.6134129231444</v>
       </c>
       <c r="X13" t="n">
-        <v>582.430342890163</v>
+        <v>776.6134129231444</v>
       </c>
       <c r="Y13" t="n">
-        <v>441.2005855367289</v>
+        <v>625.2976268859818</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1711.843491816804</v>
+        <v>1719.577864530541</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816804</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179666</v>
+        <v>1398.198638179665</v>
       </c>
       <c r="E14" t="n">
         <v>1067.411388442404</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185759</v>
+        <v>722.3132251185754</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527727</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
         <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
         <v>206.7689006129436</v>
@@ -5303,25 +5303,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U14" t="n">
-        <v>2982.09548612148</v>
+        <v>2931.441922420302</v>
       </c>
       <c r="V14" t="n">
-        <v>2982.09548612148</v>
+        <v>2661.131388270015</v>
       </c>
       <c r="W14" t="n">
-        <v>2682.892726235962</v>
+        <v>2361.928628384496</v>
       </c>
       <c r="X14" t="n">
-        <v>2365.236396315212</v>
+        <v>2044.272298463746</v>
       </c>
       <c r="Y14" t="n">
-        <v>2040.541962382007</v>
+        <v>1719.577864530541</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5352,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I15" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.8582737663419</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M15" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>474.9551552953889</v>
+        <v>327.869103093913</v>
       </c>
       <c r="C16" t="n">
-        <v>376.546312507572</v>
+        <v>327.869103093913</v>
       </c>
       <c r="D16" t="n">
-        <v>292.7094745562806</v>
+        <v>327.869103093913</v>
       </c>
       <c r="E16" t="n">
-        <v>208.9469375616769</v>
+        <v>244.1065660993093</v>
       </c>
       <c r="F16" t="n">
-        <v>123.4172779208438</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774628</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
         <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118221</v>
+        <v>746.069761511822</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138159</v>
+        <v>999.6269248138158</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126308</v>
@@ -5458,28 +5458,28 @@
         <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922021</v>
+        <v>1365.71283314325</v>
       </c>
       <c r="T16" t="n">
-        <v>1313.608118922021</v>
+        <v>1201.790056457678</v>
       </c>
       <c r="U16" t="n">
-        <v>1099.965602310116</v>
+        <v>988.1475398457733</v>
       </c>
       <c r="V16" t="n">
-        <v>905.7825322771339</v>
+        <v>793.9644698127913</v>
       </c>
       <c r="W16" t="n">
-        <v>694.2484053545054</v>
+        <v>582.4303428901629</v>
       </c>
       <c r="X16" t="n">
-        <v>588.3668988404963</v>
+        <v>582.4303428901629</v>
       </c>
       <c r="Y16" t="n">
-        <v>588.3668988404963</v>
+        <v>431.1145568530001</v>
       </c>
     </row>
     <row r="17">
@@ -5498,25 +5498,25 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099311</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
         <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
         <v>1059.071548358934</v>
@@ -5531,7 +5531,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
         <v>3105.956385205776</v>
@@ -5543,13 +5543,13 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U17" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
         <v>2405.467337224691</v>
@@ -5558,7 +5558,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
         <v>175.2341099238429</v>
@@ -5598,16 +5598,16 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>596.176270190801</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N18" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O18" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P18" t="n">
         <v>2146.089571124861</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072677</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462919</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229987</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222417</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L19" t="n">
-        <v>442.71782091847</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M19" t="n">
-        <v>629.009399256734</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879432</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296512</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974524</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C20" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
         <v>1098.796330498593</v>
@@ -5738,16 +5738,16 @@
         <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924233</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5768,7 +5768,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
         <v>3105.956385205776</v>
@@ -5780,19 +5780,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T20" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U20" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
         <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443166</v>
@@ -5826,22 +5826,22 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>346.9752758473783</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M21" t="n">
-        <v>1606.310991511064</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N21" t="n">
-        <v>1974.833293963354</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
         <v>1974.833293963354</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072677</v>
+        <v>87.33863074072667</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462919</v>
+        <v>63.53681638462914</v>
       </c>
       <c r="I22" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
         <v>161.4017547291066</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390484</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128482</v>
+        <v>442.7178209184691</v>
       </c>
       <c r="M22" t="n">
-        <v>629.009399256734</v>
+        <v>629.0093992567331</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879432</v>
+        <v>812.1990332879423</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296512</v>
+        <v>974.9038003296503</v>
       </c>
       <c r="P22" t="n">
-        <v>1094.77996610623</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161904</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194225</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330086</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984002</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974524</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="23">
@@ -5963,49 +5963,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975456</v>
+        <v>827.8895422975453</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924233</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129444</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404062</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M23" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O23" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
         <v>3105.956385205776</v>
@@ -6014,25 +6014,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
-        <v>2855.219708188069</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224692</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>862.5399502876207</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1490.311599914302</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N24" t="n">
-        <v>2146.089571124861</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
         <v>2146.089571124861</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072677</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462919</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411552</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M25" t="n">
-        <v>494.3733870261212</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974524</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6224,28 +6224,28 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J26" t="n">
-        <v>303.7986541368132</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K26" t="n">
-        <v>755.8323718938483</v>
+        <v>670.0483496134134</v>
       </c>
       <c r="L26" t="n">
-        <v>1342.20402534195</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
-        <v>1981.256287116104</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2602.11893248314</v>
+        <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>3042.158533375468</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.34602550699</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377512</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377512</v>
@@ -6254,19 +6254,19 @@
         <v>3596.670073605751</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6303,19 +6303,19 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J27" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K27" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L27" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M27" t="n">
-        <v>989.7850731278173</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1504.441740534771</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985351</v>
+        <v>504.3300981985349</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517125</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414156</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G28" t="n">
         <v>172.0564727746017</v>
@@ -6382,7 +6382,7 @@
         <v>73.36485894755025</v>
       </c>
       <c r="J28" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
@@ -6391,7 +6391,7 @@
         <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904114</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6427,7 +6427,7 @@
         <v>722.7688154988161</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026478</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
         <v>1584.222786214271</v>
@@ -6446,64 +6446,64 @@
         <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218595</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>311.0659935859516</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>755.8323718938478</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1342.20402534195</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1981.256287116104</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.334910202705</v>
+        <v>2602.118932483139</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824607</v>
+        <v>3135.209895105041</v>
       </c>
       <c r="P29" t="n">
-        <v>3483.397387236564</v>
+        <v>3483.397387236563</v>
       </c>
       <c r="Q29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
         <v>2188.011670848361</v>
@@ -6534,22 +6534,22 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
-        <v>186.4798411672776</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K30" t="n">
-        <v>506.2189872295041</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>989.7850731278173</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="M30" t="n">
-        <v>1235.193651060917</v>
+        <v>876.6700909080899</v>
       </c>
       <c r="N30" t="n">
         <v>1235.193651060917</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985345</v>
+        <v>504.3300981985352</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517121</v>
+        <v>429.0656615517128</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414152</v>
+        <v>368.3732297414159</v>
       </c>
       <c r="E31" t="n">
-        <v>307.755098887806</v>
+        <v>307.7550988878067</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879673</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746012</v>
+        <v>172.0564727746019</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232842</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
-        <v>136.6424780796861</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K31" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225739</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M31" t="n">
-        <v>848.050822590411</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122475</v>
+        <v>1380.047947122476</v>
       </c>
       <c r="P31" t="n">
         <v>1592.975474628627</v>
@@ -6643,28 +6643,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648016</v>
+        <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573176</v>
+        <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102265</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210278</v>
+        <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286441</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988155</v>
+        <v>722.7688154988165</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026475</v>
+        <v>594.5974356026481</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222129</v>
+        <v>1743.798875918589</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463661</v>
+        <v>904.3560533993074</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057086</v>
+        <v>601.3807258108104</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.137081180339</v>
       </c>
       <c r="H32" t="n">
-        <v>100.474102218932</v>
+        <v>91.97314162835497</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="J32" t="n">
-        <v>299.6075039955937</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>658.5898600230555</v>
+        <v>651.4842651334774</v>
       </c>
       <c r="L32" t="n">
-        <v>1257.183244468655</v>
+        <v>1256.456677426989</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.184144513235</v>
+        <v>1802.45757747157</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150698</v>
+        <v>2330.268861109032</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770096</v>
+        <v>2770.308462001361</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901619</v>
+        <v>3118.495954132883</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042567</v>
+        <v>3303.341514273831</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038078</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908493</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397275</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761239</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394122</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291774</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807925</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408847</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.170333562365</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.232218628249</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="J33" t="n">
-        <v>182.6625304604889</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>502.4016765227154</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="L33" t="n">
-        <v>985.9677624210286</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.376340354128</v>
+        <v>573.6059565051531</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965117</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918657</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237451</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123124</v>
+        <v>226.0316571652535</v>
       </c>
       <c r="F34" t="n">
-        <v>204.14288975465</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834603</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431895</v>
+        <v>86.7304500837419</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076156</v>
+        <v>67.55513560234509</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>143.5810516071541</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074066</v>
+        <v>225.4160927170959</v>
       </c>
       <c r="L34" t="n">
-        <v>496.2826720812064</v>
+        <v>389.5437325908957</v>
       </c>
       <c r="M34" t="n">
-        <v>682.5742504194704</v>
+        <v>575.8353109291597</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770925</v>
+        <v>870.6770655353519</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145871</v>
+        <v>1033.38183257706</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.41832664952</v>
+        <v>1264.910118928621</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746641</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308583</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420497</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518096</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689361</v>
+        <v>987.7859626250178</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395501</v>
+        <v>835.7257283273673</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000923</v>
+        <v>666.3144371400701</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124402</v>
+        <v>546.1532258045785</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584483</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6911,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975449</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
         <v>68.77950792924217</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411552</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6953,19 +6953,19 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829234</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.29570107106</v>
+        <v>2979.295701071059</v>
       </c>
       <c r="U35" t="n">
         <v>2855.219708188067</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224689</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840155</v>
@@ -6999,10 +6999,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F36" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G36" t="n">
         <v>199.803798091603</v>
@@ -7011,25 +7011,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>62.11912770411552</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411552</v>
+        <v>494.9732559860693</v>
       </c>
       <c r="L36" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D37" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G37" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072664</v>
       </c>
       <c r="H37" t="n">
         <v>63.53681638462911</v>
       </c>
       <c r="I37" t="n">
-        <v>62.11912770411552</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229859</v>
       </c>
       <c r="K37" t="n">
-        <v>270.9691711012516</v>
+        <v>149.5338114222405</v>
       </c>
       <c r="L37" t="n">
-        <v>435.0968109750514</v>
+        <v>313.6614512960402</v>
       </c>
       <c r="M37" t="n">
-        <v>621.3883893133154</v>
+        <v>499.9530296343043</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445246</v>
+        <v>683.1426636655135</v>
       </c>
       <c r="O37" t="n">
-        <v>967.2827903862326</v>
+        <v>845.8474307072216</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162811</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918799</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974517</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="38">
@@ -7157,13 +7157,13 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924217</v>
@@ -7172,7 +7172,7 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129435</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
         <v>565.7512566404055</v>
@@ -7190,7 +7190,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7205,19 +7205,19 @@
         <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7254,22 @@
         <v>62.11912770411552</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411552</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="M39" t="n">
-        <v>973.7913173233209</v>
+        <v>1009.629923393023</v>
       </c>
       <c r="N39" t="n">
-        <v>1629.56928853388</v>
+        <v>1665.407894603582</v>
       </c>
       <c r="O39" t="n">
-        <v>2146.089571124861</v>
+        <v>2181.928177194563</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7330,28 +7330,28 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411552</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750514</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>621.3883893133154</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>804.5780233445246</v>
       </c>
       <c r="O40" t="n">
-        <v>969.3241577214671</v>
+        <v>967.2827903862326</v>
       </c>
       <c r="P40" t="n">
-        <v>1089.200323498046</v>
+        <v>1087.158956162811</v>
       </c>
       <c r="Q40" t="n">
-        <v>1092.622519868097</v>
+        <v>1090.581152532862</v>
       </c>
       <c r="R40" t="n">
         <v>1098.202162476279</v>
@@ -7394,19 +7394,19 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975448</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.671840509931</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803427</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924227</v>
+        <v>68.77950792924184</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J41" t="n">
         <v>206.768900612944</v>
@@ -7442,16 +7442,16 @@
         <v>2979.29570107106</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7497,10 +7497,10 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1606.310991511064</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
         <v>1740.468202408463</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218804</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072677</v>
+        <v>87.33863074072671</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462919</v>
+        <v>63.53681638462916</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411552</v>
@@ -7582,37 +7582,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q43" t="n">
         <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974524</v>
+        <v>289.4632611974522</v>
       </c>
     </row>
     <row r="44">
@@ -7725,22 +7725,22 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K45" t="n">
-        <v>175.2341099238429</v>
+        <v>381.8582737663419</v>
       </c>
       <c r="L45" t="n">
-        <v>175.2341099238429</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>803.0057595505241</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.783730761083</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>2009.716291882317</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7807,25 +7807,25 @@
         <v>161.4017547291066</v>
       </c>
       <c r="K46" t="n">
-        <v>270.969171101253</v>
+        <v>243.2367958390484</v>
       </c>
       <c r="L46" t="n">
-        <v>435.0968109750528</v>
+        <v>407.3644357128482</v>
       </c>
       <c r="M46" t="n">
-        <v>621.3883893133168</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N46" t="n">
-        <v>804.5780233445259</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O46" t="n">
-        <v>967.282790386234</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P46" t="n">
-        <v>1087.158956162813</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q46" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R46" t="n">
         <v>1098.202162476281</v>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>281.2999319571983</v>
+        <v>529.8612640735057</v>
       </c>
       <c r="M2" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920148</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -7997,7 +7997,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q2" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R2" t="n">
         <v>102.5176150018526</v>
@@ -8064,19 +8064,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837482</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>473.353854930895</v>
+        <v>572.6307885465563</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>611.4781433431197</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,19 +8213,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>143.0584031792374</v>
       </c>
       <c r="L5" t="n">
-        <v>246.3235116806305</v>
+        <v>227.5682383249657</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321635</v>
+        <v>668.5156360519579</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920148</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
@@ -8234,7 +8234,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,22 +8292,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>159.9845787667357</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>533.3182154539878</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886029</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431197</v>
       </c>
       <c r="P6" t="n">
         <v>496.801919078302</v>
@@ -8456,13 +8456,13 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>153.2481697304917</v>
+        <v>451.8641826900545</v>
       </c>
       <c r="M8" t="n">
-        <v>466.7144144634705</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
         <v>594.0482827698827</v>
@@ -8529,22 +8529,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>113.6241866392233</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234617</v>
+        <v>333.2595653118437</v>
       </c>
       <c r="O9" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
@@ -8766,16 +8766,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>691.2645480167034</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N12" t="n">
         <v>85.37211285416666</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8945,7 +8945,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q14" t="n">
-        <v>331.211385429451</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R14" t="n">
         <v>102.5176150018526</v>
@@ -9003,19 +9003,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>454.5321323046928</v>
+        <v>237.5738335035115</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
@@ -9024,7 +9024,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9246,7 +9246,7 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>192.2856137303845</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
@@ -9258,7 +9258,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>496.801919078302</v>
+        <v>110.5765941352903</v>
       </c>
       <c r="Q18" t="n">
         <v>327.7205688679246</v>
@@ -9480,7 +9480,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>263.0728605086217</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9489,10 +9489,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>457.616862805975</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9714,25 +9714,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>575.5973938481089</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O24" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
         <v>327.7205688679246</v>
@@ -9951,7 +9951,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
         <v>412.5657697396227</v>
@@ -9960,13 +9960,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>333.2595653118427</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>342.4574509263905</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,10 +10197,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>340.274574506988</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>85.37211285416666</v>
+        <v>447.5171231095471</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10428,16 +10428,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>340.2745745069885</v>
+        <v>489.2920096079793</v>
       </c>
       <c r="N33" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10662,25 +10662,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>546.0917343741362</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10841,7 +10841,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
-        <v>331.2113854294513</v>
+        <v>331.211385429451</v>
       </c>
       <c r="R38" t="n">
         <v>102.5176150018526</v>
@@ -10902,13 +10902,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>524.8175298481927</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
@@ -10917,10 +10917,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>287.615168339707</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11145,13 +11145,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
-        <v>228.1998931286865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
@@ -11373,25 +11373,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
-        <v>377.2173282296772</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>224.834151932995</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>264.9122627124439</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362796</v>
       </c>
       <c r="T11" t="n">
-        <v>118.0530455351137</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087848</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993875</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177847</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465758</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456096</v>
+        <v>29.49960722551873</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>9.985168396891225</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,13 +23492,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
-        <v>318.1654340873668</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>93.77010711362765</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>153.2647068951907</v>
+        <v>159.5348557388403</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>10.06462688816046</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993877</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.9984695717785</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681701</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>82.84545313338906</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456099</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901691</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.83851515124587</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>984912.3176656881</v>
+        <v>983107.6748244073</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>984912.3176656881</v>
+        <v>983107.6748244073</v>
       </c>
     </row>
     <row r="4">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>890156.7774173833</v>
+        <v>890156.7774173834</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>342631.1383773779</v>
+        <v>342631.1383773778</v>
       </c>
       <c r="C2" t="n">
-        <v>342631.1383773779</v>
+        <v>342631.1383773778</v>
       </c>
       <c r="D2" t="n">
         <v>342631.1383773779</v>
@@ -26323,34 +26323,34 @@
         <v>302782.1445063608</v>
       </c>
       <c r="F2" t="n">
-        <v>302782.1445063609</v>
+        <v>302782.144506361</v>
       </c>
       <c r="G2" t="n">
+        <v>342631.1383773781</v>
+      </c>
+      <c r="H2" t="n">
+        <v>342631.1383773782</v>
+      </c>
+      <c r="I2" t="n">
         <v>342631.138377378</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
+        <v>342631.1383773782</v>
+      </c>
+      <c r="K2" t="n">
         <v>342631.1383773781</v>
       </c>
-      <c r="I2" t="n">
-        <v>342631.1383773781</v>
-      </c>
-      <c r="J2" t="n">
-        <v>342631.1383773781</v>
-      </c>
-      <c r="K2" t="n">
-        <v>342631.138377378</v>
-      </c>
       <c r="L2" t="n">
-        <v>342631.1383773781</v>
+        <v>342631.1383773782</v>
       </c>
       <c r="M2" t="n">
         <v>342631.1383773781</v>
       </c>
       <c r="N2" t="n">
-        <v>342631.1383773779</v>
+        <v>342631.1383773782</v>
       </c>
       <c r="O2" t="n">
-        <v>342631.1383773781</v>
+        <v>342631.138377378</v>
       </c>
       <c r="P2" t="n">
         <v>342631.1383773781</v>
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918556</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062219</v>
+        <v>22558.42953401344</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,31 +26378,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668196</v>
+        <v>47425.32553668199</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945023</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728565</v>
+        <v>62456.24177539686</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962313</v>
+        <v>43252.52447081109</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277114</v>
+        <v>27767.69404277117</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>232424.3126138794</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="C4" t="n">
-        <v>232424.3126138794</v>
+        <v>237331.8440488215</v>
       </c>
       <c r="D4" t="n">
         <v>223021.8565516675</v>
@@ -26427,7 +26427,7 @@
         <v>151510.2534766781</v>
       </c>
       <c r="F4" t="n">
-        <v>151510.2534766781</v>
+        <v>151510.253476678</v>
       </c>
       <c r="G4" t="n">
         <v>199269.1699682603</v>
@@ -26445,7 +26445,7 @@
         <v>200019.6624326434</v>
       </c>
       <c r="L4" t="n">
-        <v>199764.08853216</v>
+        <v>199630.6939231053</v>
       </c>
       <c r="M4" t="n">
         <v>199269.1699682603</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001373</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26479,28 +26479,28 @@
         <v>53186.01969984052</v>
       </c>
       <c r="F5" t="n">
-        <v>53186.0196998405</v>
+        <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391949</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173845</v>
+        <v>60823.19813315423</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551964</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-138682.4236683708</v>
+        <v>-133729.4302403161</v>
       </c>
       <c r="C6" t="n">
-        <v>43522.52462348479</v>
+        <v>40129.22679373906</v>
       </c>
       <c r="D6" t="n">
-        <v>35201.68423791506</v>
+        <v>27465.39501452385</v>
       </c>
       <c r="E6" t="n">
-        <v>-14036.69014420238</v>
+        <v>-14246.42169089188</v>
       </c>
       <c r="F6" t="n">
-        <v>98085.8713298423</v>
+        <v>97876.13978315286</v>
       </c>
       <c r="G6" t="n">
-        <v>37766.87355691606</v>
+        <v>37766.87355691619</v>
       </c>
       <c r="H6" t="n">
-        <v>85192.19909359813</v>
+        <v>85192.19909359817</v>
       </c>
       <c r="I6" t="n">
-        <v>85192.19909359807</v>
+        <v>85192.19909359806</v>
       </c>
       <c r="J6" t="n">
-        <v>-127849.7185036872</v>
+        <v>-121333.4333491141</v>
       </c>
       <c r="K6" t="n">
-        <v>78952.43069081509</v>
+        <v>78952.43069081521</v>
       </c>
       <c r="L6" t="n">
-        <v>23769.84175619396</v>
+        <v>19721.00454572174</v>
       </c>
       <c r="M6" t="n">
-        <v>42991.36963397491</v>
+        <v>41939.67462278707</v>
       </c>
       <c r="N6" t="n">
-        <v>85192.19909359788</v>
+        <v>85192.19909359817</v>
       </c>
       <c r="O6" t="n">
-        <v>57424.50505082701</v>
+        <v>57424.50505082688</v>
       </c>
       <c r="P6" t="n">
-        <v>85192.19909359819</v>
+        <v>85192.1990935981</v>
       </c>
     </row>
   </sheetData>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344363</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344363</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26799,28 +26799,28 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="G4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
-        <v>917.0607368443781</v>
+        <v>917.060736844378</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.060736844378</v>
       </c>
       <c r="L4" t="n">
-        <v>869.3443530095194</v>
+        <v>844.4391950293136</v>
       </c>
       <c r="M4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014437</v>
       </c>
       <c r="N4" t="n">
         <v>776.489096301444</v>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,16 +26935,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660706</v>
+        <v>78.07030221924607</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551338</v>
+        <v>17.58004954287439</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346393</v>
+        <v>34.70961755346396</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344363</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485879</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773704</v>
+        <v>659.3622249971646</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407356</v>
+        <v>117.1268713042791</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085246</v>
+        <v>59.28165692085248</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344363</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485879</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169.9106338815999</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -27433,7 +27433,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>232.2316419003544</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -27445,7 +27445,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27503,13 +27503,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>27.91849938627314</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,10 +27521,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.4140068734885</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>94.41567260241268</v>
       </c>
     </row>
     <row r="4">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>60.39847475326034</v>
       </c>
       <c r="I4" t="n">
         <v>131.7634811092929</v>
@@ -27585,13 +27585,13 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>161.7343562880042</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
@@ -27622,16 +27622,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>250.6368330217231</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>274.1106259898057</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27670,19 +27670,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27701,19 +27701,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>27.91849938627318</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>26.6626360434342</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27777,13 +27777,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27831,16 +27831,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>257.6460814777334</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>111.5095914966309</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,19 +27850,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>226.542271815589</v>
+        <v>114.1021944707356</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>385.5580790162737</v>
@@ -28014,7 +28014,7 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
         <v>154.0032240193895</v>
@@ -28023,13 +28023,13 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>24.47457516962936</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,16 +28062,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>197.4048500855066</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -28743,31 +28743,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668872</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
       <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>28.01250026485243</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
+      <c r="R19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>0</v>
-      </c>
-      <c r="R19" t="n">
-        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28986,10 +28986,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>35.7104901066877</v>
       </c>
       <c r="M22" t="n">
-        <v>35.71049010668867</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29217,10 +29217,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29232,7 +29232,7 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -29241,7 +29241,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082783</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>86.65052755599478</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>30.27223765901141</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733328</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431636</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29536,7 +29536,7 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>86.65052755599436</v>
       </c>
       <c r="L29" t="n">
         <v>93.99127447431646</v>
@@ -29545,13 +29545,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P29" t="n">
-        <v>86.65052755599538</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -29746,37 +29746,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
-        <v>86.27291196566063</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>81.1080814089317</v>
       </c>
       <c r="L32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -29785,7 +29785,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,34 +29904,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000711</v>
+        <v>106.8683420224712</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29940,40 +29940,40 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>18.71446861253824</v>
+        <v>112.77991977271</v>
       </c>
       <c r="O34" t="n">
-        <v>106.3364573000711</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000711</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30031,7 +30031,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733193</v>
       </c>
       <c r="S35" t="n">
         <v>130.3599693155844</v>
@@ -30165,31 +30165,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>35.71049010668744</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>28.01250026485162</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
       <c r="Q37" t="n">
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30402,13 +30402,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>28.01250026485164</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -30417,16 +30417,16 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>128.2979821082768</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30654,16 +30654,16 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
+        <v>0</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="P43" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>0</v>
-      </c>
       <c r="R43" t="n">
-        <v>128.2979821082783</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30879,13 +30879,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="K46" t="n">
-        <v>28.01250026485309</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>35.71049010668867</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30900,7 +30900,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S46" t="n">
         <v>130.3599693155844</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>128.0517622267066</v>
+        <v>376.613094343014</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34717,7 +34717,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q2" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344363</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>387.9817420767283</v>
+        <v>487.2586756923897</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>93.07534195013885</v>
+        <v>74.32006859447398</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344363</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
@@ -34954,7 +34954,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,22 +35012,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>77.54012143340238</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>440.9310934046759</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344363</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="P6" t="n">
         <v>409.7185542589873</v>
@@ -35176,13 +35176,13 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>298.6160129595628</v>
       </c>
       <c r="M8" t="n">
-        <v>316.9893628657432</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>444.4844453457863</v>
@@ -35249,22 +35249,22 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>24.02725130588991</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692951</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
@@ -35486,16 +35486,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>598.8774259673916</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q14" t="n">
-        <v>186.7126870110588</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>362.1450102553808</v>
+        <v>145.1867114541996</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
@@ -35744,7 +35744,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35966,7 +35966,7 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2252668734663</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
         <v>634.1127774006881</v>
@@ -35978,7 +35978,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>409.7185542589873</v>
+        <v>23.49322931597565</v>
       </c>
       <c r="Q18" t="n">
         <v>236.7324157120106</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634529647</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
         <v>188.1733114527919</v>
@@ -36054,7 +36054,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>192.3607498019313</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36063,7 +36063,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>173.4759251752883</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36209,10 +36209,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>372.2447499518083</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>409.7185542589873</v>
@@ -36282,10 +36282,10 @@
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>165.78549482202</v>
+        <v>201.4959849287077</v>
       </c>
       <c r="M22" t="n">
-        <v>223.8838015594806</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>485.5370469911907</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
         <v>236.7324157120106</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
@@ -36528,7 +36528,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
         <v>121.0870361379582</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529554</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>232.7614092820838</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36610,13 +36610,13 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>381.9767751655991</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853755</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36671,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>322.9688344062893</v>
@@ -36680,13 +36680,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>249.7698920375016</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963363</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>449.258967987774</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36841,13 +36841,13 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>438.3550650625831</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
         <v>186.7126870110591</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,10 +36917,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>247.8874524576761</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>362.1450102553805</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -37066,13 +37066,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>232.3837936917496</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>443.7165218407113</v>
       </c>
       <c r="L32" t="n">
-        <v>604.639782268282</v>
+        <v>611.083244740921</v>
       </c>
       <c r="M32" t="n">
         <v>551.5160606510915</v>
@@ -37081,7 +37081,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458574</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
         <v>351.7045375065877</v>
@@ -37090,7 +37090,7 @@
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273778</v>
+        <v>75.16693519537677</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,16 +37148,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>247.8874524576765</v>
+        <v>396.9048875586673</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.261969827912</v>
+        <v>76.79385455031212</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
@@ -37236,16 +37236,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>203.754502987497</v>
+        <v>297.8199541476689</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380292</v>
+        <v>233.8669559106682</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102235</v>
+        <v>116.2366837828625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>460.7196215199696</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434254</v>
+        <v>5.636002634528377</v>
       </c>
       <c r="K37" t="n">
-        <v>110.6741579516616</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
         <v>165.78549482202</v>
@@ -37479,13 +37479,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535426</v>
       </c>
       <c r="Q37" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.697989841835636</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37561,7 +37561,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110588</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>432.4304077988809</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
@@ -37637,10 +37637,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>200.5318035203924</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>100.2854818434254</v>
       </c>
       <c r="K40" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
-        <v>165.78549482202</v>
+        <v>193.7979950868716</v>
       </c>
       <c r="M40" t="n">
         <v>188.1733114527919</v>
@@ -37713,7 +37713,7 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>294.7082188526633</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37722,7 +37722,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>5.636002634527946</v>
+        <v>7.697989841835636</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37865,13 +37865,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>135.5123342397976</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
@@ -37950,16 +37950,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R43" t="n">
-        <v>5.636002634529554</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>284.5297693407883</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>137.7507871136803</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38175,13 +38175,13 @@
         <v>100.2854818434253</v>
       </c>
       <c r="K46" t="n">
-        <v>110.6741579516631</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>188.1733114527919</v>
+        <v>223.8838015594806</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38196,7 +38196,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>7.69798984183555</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
